--- a/node_910_memo/document/샘플-도서정보-테이블명세-데이터(2024-01-19).xlsx
+++ b/node_910_memo/document/샘플-도서정보-테이블명세-데이터(2024-01-19).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS5050201\Documents\workspace\nodejs\node_910_memo\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61F3CC6-C30D-4849-8F86-5CCDB73B72C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFFAABA-A654-4F1B-9433-9B01BA78F592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14790" yWindow="825" windowWidth="14010" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="도서정보 테이블 명세" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="236">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2063,7 +2063,7 @@
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2949,7 +2949,9 @@
       <c r="F11" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -2972,7 +2974,9 @@
       <c r="F12" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
